--- a/padron.xlsx
+++ b/padron.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\API\Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M.ALVARENGA\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AE3AE8-D8DA-434B-935F-B244FA3C4356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2B879CB-C2FB-4AF9-A7E5-D1A05328C2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3DA0AFAA-7739-4260-B082-AD28699B2D0E}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="11520" windowHeight="7785" xr2:uid="{9A960F8B-EB69-4883-8C99-9324FB310D6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$D$1:$D$3659</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,9 +28,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -11382,17 +11376,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6DD1FB7-0E60-4FA8-8FE6-4388AF815A9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B517DC73-19D7-4641-A95D-F9B4F19C55FF}">
   <dimension ref="B1:E3659"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="39.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
